--- a/assets/subcategoryimportfiles/foodcategoryfile.xlsx
+++ b/assets/subcategoryimportfiles/foodcategoryfile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>sno</t>
   </si>
@@ -72,15 +72,9 @@
     <t>Product description</t>
   </si>
   <si>
-    <t>skuid</t>
-  </si>
-  <si>
     <t>otherunique</t>
   </si>
   <si>
-    <t>prodctname</t>
-  </si>
-  <si>
     <t>999</t>
   </si>
   <si>
@@ -174,7 +168,10 @@
     <t>cuisine</t>
   </si>
   <si>
-    <t>sufficient</t>
+    <t>Qucik bytes11</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -525,15 +522,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
@@ -571,10 +568,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
@@ -592,55 +589,55 @@
         <v>17</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -648,55 +645,55 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
